--- a/ElasticProperties/C11C12C44.xlsx
+++ b/ElasticProperties/C11C12C44.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\Nutstore\jfding\Research\CodeDevelop\ElasticProperties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\Nutstore\JDing\Research\CodeDevelop\ElasticProperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C0775-0A61-4339-BBFF-59ABA84796AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B3D89-EBCD-40A8-8B05-DF81D790C250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="817" windowWidth="16020" windowHeight="12263" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>IrN2_tetra_p4m2_strain-stress</t>
   </si>
@@ -86,6 +86,12 @@
   <si>
     <t>Tetra-WN2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h-TiN2</t>
+  </si>
+  <si>
+    <t>h-HfN2</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -705,6 +711,34 @@
         <v>9.2478169343520975E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>115.08499999999999</v>
+      </c>
+      <c r="C14">
+        <v>63.81</v>
+      </c>
+      <c r="D14">
+        <v>25.638000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>146.41900000000001</v>
+      </c>
+      <c r="C15">
+        <v>88.504999999999995</v>
+      </c>
+      <c r="D15">
+        <v>28.957000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
